--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mdk-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mdk-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.891504666666667</v>
+        <v>0.538445</v>
       </c>
       <c r="H2">
-        <v>8.674514</v>
+        <v>1.615335</v>
       </c>
       <c r="I2">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="J2">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>325.332998030496</v>
+        <v>32.86754772215167</v>
       </c>
       <c r="R2">
-        <v>2927.996982274464</v>
+        <v>295.8079294993651</v>
       </c>
       <c r="S2">
-        <v>0.03974888570984021</v>
+        <v>0.006890263497024104</v>
       </c>
       <c r="T2">
-        <v>0.03974888570984021</v>
+        <v>0.006890263497024104</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.891504666666667</v>
+        <v>0.538445</v>
       </c>
       <c r="H3">
-        <v>8.674514</v>
+        <v>1.615335</v>
       </c>
       <c r="I3">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="J3">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>307.4087745731746</v>
+        <v>57.24449264536999</v>
       </c>
       <c r="R3">
-        <v>2766.678971158572</v>
+        <v>515.20043380833</v>
       </c>
       <c r="S3">
-        <v>0.03755892061574938</v>
+        <v>0.01200058006804763</v>
       </c>
       <c r="T3">
-        <v>0.03755892061574939</v>
+        <v>0.01200058006804763</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.891504666666667</v>
+        <v>0.538445</v>
       </c>
       <c r="H4">
-        <v>8.674514</v>
+        <v>1.615335</v>
       </c>
       <c r="I4">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="J4">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>360.5465032907249</v>
+        <v>70.71850981348665</v>
       </c>
       <c r="R4">
-        <v>3244.918529616524</v>
+        <v>636.46658832138</v>
       </c>
       <c r="S4">
-        <v>0.0440512393121652</v>
+        <v>0.01482523645667073</v>
       </c>
       <c r="T4">
-        <v>0.0440512393121652</v>
+        <v>0.01482523645667073</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>36.121289</v>
       </c>
       <c r="I5">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905094</v>
       </c>
       <c r="J5">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905093</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>1354.709582934096</v>
+        <v>734.9671677968547</v>
       </c>
       <c r="R5">
-        <v>12192.38624640686</v>
+        <v>6614.704510171693</v>
       </c>
       <c r="S5">
-        <v>0.1655171676653134</v>
+        <v>0.1540765222459479</v>
       </c>
       <c r="T5">
-        <v>0.1655171676653134</v>
+        <v>0.1540765222459479</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>36.121289</v>
       </c>
       <c r="I6">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905094</v>
       </c>
       <c r="J6">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905093</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
         <v>1280.071850422225</v>
@@ -818,10 +818,10 @@
         <v>11520.64665380002</v>
       </c>
       <c r="S6">
-        <v>0.1563979983304588</v>
+        <v>0.2683507884157702</v>
       </c>
       <c r="T6">
-        <v>0.1563979983304588</v>
+        <v>0.2683507884157702</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>36.121289</v>
       </c>
       <c r="I7">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905094</v>
       </c>
       <c r="J7">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905093</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>1501.341106061242</v>
+        <v>1581.370880109877</v>
       </c>
       <c r="R7">
-        <v>13512.06995455117</v>
+        <v>14232.33792098889</v>
       </c>
       <c r="S7">
-        <v>0.1834324719520748</v>
+        <v>0.3315142992287912</v>
       </c>
       <c r="T7">
-        <v>0.1834324719520748</v>
+        <v>0.3315142992287912</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.894098999999999</v>
+        <v>3.391101666666666</v>
       </c>
       <c r="H8">
-        <v>26.682297</v>
+        <v>10.173305</v>
       </c>
       <c r="I8">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877482</v>
       </c>
       <c r="J8">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877481</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>1000.705247273808</v>
+        <v>206.9982929729772</v>
       </c>
       <c r="R8">
-        <v>9006.347225464271</v>
+        <v>1862.984636756795</v>
       </c>
       <c r="S8">
-        <v>0.1222652443617028</v>
+        <v>0.04339456031448139</v>
       </c>
       <c r="T8">
-        <v>0.1222652443617028</v>
+        <v>0.04339456031448138</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.894098999999999</v>
+        <v>3.391101666666666</v>
       </c>
       <c r="H9">
-        <v>26.682297</v>
+        <v>10.173305</v>
       </c>
       <c r="I9">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877482</v>
       </c>
       <c r="J9">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877481</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>945.5713857361338</v>
+        <v>360.5231628433766</v>
       </c>
       <c r="R9">
-        <v>8510.142471625206</v>
+        <v>3244.70846559039</v>
       </c>
       <c r="S9">
-        <v>0.1155290399979581</v>
+        <v>0.07557909734461847</v>
       </c>
       <c r="T9">
-        <v>0.1155290399979581</v>
+        <v>0.07557909734461847</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.894098999999999</v>
+        <v>3.391101666666666</v>
       </c>
       <c r="H10">
-        <v>26.682297</v>
+        <v>10.173305</v>
       </c>
       <c r="I10">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877482</v>
       </c>
       <c r="J10">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877481</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>1109.019927008545</v>
+        <v>445.3818987876155</v>
       </c>
       <c r="R10">
-        <v>9981.179343076901</v>
+        <v>4008.437089088539</v>
       </c>
       <c r="S10">
-        <v>0.1354990320547373</v>
+        <v>0.09336865242864829</v>
       </c>
       <c r="T10">
-        <v>0.1354990320547373</v>
+        <v>0.09336865242864829</v>
       </c>
     </row>
   </sheetData>
